--- a/csv_files/2d_10z/target_vs_output.xlsx
+++ b/csv_files/2d_10z/target_vs_output.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\studentdell1\Documents\GitHub\particles_nir_repo_new\csv_files\2d_10z\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ניר צדוק\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8700E5B2-2485-453B-AC29-3B426152BD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,9 +53,6 @@
     <t>Output</t>
   </si>
   <si>
-    <t>Std/sqrt(2)</t>
-  </si>
-  <si>
     <t>Nout</t>
   </si>
   <si>
@@ -69,11 +67,14 @@
   <si>
     <t>chisquare</t>
   </si>
+  <si>
+    <t>Std/sqrt(3)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,10 +190,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="טוב" xfId="1" builtinId="26"/>
+    <cellStyle name="ניטראלי" xfId="3" builtinId="28"/>
+    <cellStyle name="רע" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -210,7 +211,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -248,7 +249,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -315,58 +315,58 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.1901757353987932E-4</c:v>
+                    <c:v>1.0095131088917507E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.3094000921508291E-3</c:v>
+                    <c:v>3.189037217168985E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.235372365807755E-2</c:v>
+                    <c:v>0.11331692590370503</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.5178589258940433E-2</c:v>
+                    <c:v>0.19816706088964087</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.969406806746815E-2</c:v>
+                    <c:v>0.24618727629167436</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.7260563917478833E-2</c:v>
+                    <c:v>0.25031694706920909</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.6425423399102611E-2</c:v>
+                    <c:v>0.21637480994988659</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.243244202954329E-2</c:v>
+                    <c:v>0.16769688080733139</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.2565495223641822E-2</c:v>
+                    <c:v>0.11686690840165331</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.9072287462456868E-2</c:v>
+                    <c:v>7.5523129655972909E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>9.8204230915311299E-3</c:v>
+                    <c:v>4.4224892404306763E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4.465335201358861E-3</c:v>
+                    <c:v>2.3576269333602917E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>2.1523733287117652E-3</c:v>
+                    <c:v>1.2583991088824843E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.5648245752443943E-3</c:v>
+                    <c:v>6.0545728812781974E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>8.9418547156822753E-4</c:v>
+                    <c:v>2.4656716309403681E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.519118911563531E-4</c:v>
+                    <c:v>8.7633146879185814E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>3.4090501506585135E-5</c:v>
+                    <c:v>1.9693403958755362E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0</c:v>
+                    <c:v>1.4348127022036208E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -381,61 +381,61 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.1901757353987932E-4</c:v>
+                    <c:v>1.0095131088917507E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.3094000921508291E-3</c:v>
+                    <c:v>3.189037217168985E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.235372365807755E-2</c:v>
+                    <c:v>0.11331692590370503</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.5178589258940433E-2</c:v>
+                    <c:v>0.19816706088964087</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.969406806746815E-2</c:v>
+                    <c:v>0.24618727629167436</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.7260563917478833E-2</c:v>
+                    <c:v>0.25031694706920909</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.6425423399102611E-2</c:v>
+                    <c:v>0.21637480994988659</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.243244202954329E-2</c:v>
+                    <c:v>0.16769688080733139</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.2565495223641822E-2</c:v>
+                    <c:v>0.11686690840165331</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.9072287462456868E-2</c:v>
+                    <c:v>7.5523129655972909E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>9.8204230915311299E-3</c:v>
+                    <c:v>4.4224892404306763E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4.465335201358861E-3</c:v>
+                    <c:v>2.3576269333602917E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>2.1523733287117652E-3</c:v>
+                    <c:v>1.2583991088824843E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.5648245752443943E-3</c:v>
+                    <c:v>6.0545728812781974E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>8.9418547156822753E-4</c:v>
+                    <c:v>2.4656716309403681E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.519118911563531E-4</c:v>
+                    <c:v>8.7633146879185814E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>3.4090501506585135E-5</c:v>
+                    <c:v>1.9693403958755362E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0</c:v>
+                    <c:v>1.4348127022036208E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>0</c:v>
+                    <c:v>1.5483458228746566E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -464,61 +464,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65355805243445686</c:v>
+                  <c:v>0.56067415730337078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>17.515730337078654</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.196629213483149</c:v>
+                  <c:v>62.252808988764045</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>138.06741573033707</c:v>
+                  <c:v>108.85056179775282</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>173.20973782771534</c:v>
+                  <c:v>135.45056179775281</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>176.05992509363296</c:v>
+                  <c:v>137.83483146067414</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>155.59550561797752</c:v>
+                  <c:v>119.0303370786517</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>121.6498127340824</c:v>
+                  <c:v>92.126966292134824</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>85.822097378277164</c:v>
+                  <c:v>63.97303370786517</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54.730337078651687</c:v>
+                  <c:v>41.129213483146067</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.528089887640448</c:v>
+                  <c:v>23.887640449438202</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16</c:v>
+                  <c:v>12.331460674157304</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.9119850187265914</c:v>
+                  <c:v>6.2617977528089881</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1704119850187267</c:v>
+                  <c:v>2.7112359550561798</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0243445692883895</c:v>
+                  <c:v>0.92359550561797754</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.25468164794007492</c:v>
+                  <c:v>0.27303370786516856</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3108614232209739E-2</c:v>
+                  <c:v>4.7191011235955059E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2.247191011235955E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2.134831460674157E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -556,64 +556,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>2.3931723589674932E-3</c:v>
+                    <c:v>1.2126897714607554E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.2142357037292952E-3</c:v>
+                    <c:v>1.0150865758765859E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.6149592175319925E-3</c:v>
+                    <c:v>3.1097335199974215E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.2364663244331128E-2</c:v>
+                    <c:v>0.11088923381155151</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.7379935819689095E-2</c:v>
+                    <c:v>0.19599512061430829</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.0467706909422968E-2</c:v>
+                    <c:v>0.24602261391190738</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.3828180274315535E-2</c:v>
+                    <c:v>0.25076992210299603</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.1184205637286851E-2</c:v>
+                    <c:v>0.21865127768591483</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.2657466779532622E-2</c:v>
+                    <c:v>0.17030022300589329</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.5588711992941993E-2</c:v>
+                    <c:v>0.1177340115924561</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.4747569668871485E-2</c:v>
+                    <c:v>7.4486918087845397E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.5797073523573037E-2</c:v>
+                    <c:v>4.2669913013875148E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4.4239125753148777E-3</c:v>
+                    <c:v>2.211303223943914E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>4.2164643063682715E-3</c:v>
+                    <c:v>1.0215604595379492E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>5.2239119668351462E-3</c:v>
+                    <c:v>5.2623313015515115E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>2.6441400511549966E-3</c:v>
+                    <c:v>2.0039016611880676E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.5116443121339247E-3</c:v>
+                    <c:v>7.2551163895514799E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>6.5281605299074522E-4</c:v>
+                    <c:v>5.4395313198289164E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.1966667408003448E-3</c:v>
+                    <c:v>7.1991978168140446E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.3710934695868344E-3</c:v>
+                    <c:v>8.0239698194878848E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -625,64 +625,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>2.3931723589674932E-3</c:v>
+                    <c:v>1.2126897714607554E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.2142357037292952E-3</c:v>
+                    <c:v>1.0150865758765859E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.6149592175319925E-3</c:v>
+                    <c:v>3.1097335199974215E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.2364663244331128E-2</c:v>
+                    <c:v>0.11088923381155151</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.7379935819689095E-2</c:v>
+                    <c:v>0.19599512061430829</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.0467706909422968E-2</c:v>
+                    <c:v>0.24602261391190738</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.3828180274315535E-2</c:v>
+                    <c:v>0.25076992210299603</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.1184205637286851E-2</c:v>
+                    <c:v>0.21865127768591483</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.2657466779532622E-2</c:v>
+                    <c:v>0.17030022300589329</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.5588711992941993E-2</c:v>
+                    <c:v>0.1177340115924561</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.4747569668871485E-2</c:v>
+                    <c:v>7.4486918087845397E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.5797073523573037E-2</c:v>
+                    <c:v>4.2669913013875148E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4.4239125753148777E-3</c:v>
+                    <c:v>2.211303223943914E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>4.2164643063682715E-3</c:v>
+                    <c:v>1.0215604595379492E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>5.2239119668351462E-3</c:v>
+                    <c:v>5.2623313015515115E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>2.6441400511549966E-3</c:v>
+                    <c:v>2.0039016611880676E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.5116443121339247E-3</c:v>
+                    <c:v>7.2551163895514799E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>6.5281605299074522E-4</c:v>
+                    <c:v>5.4395313198289164E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.1966667408003448E-3</c:v>
+                    <c:v>7.1991978168140446E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.3710934695868344E-3</c:v>
+                    <c:v>8.0239698194878848E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -708,64 +708,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-0.36065456173504679</c:v>
+                  <c:v>0.22824519268247417</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62161382036597379</c:v>
+                  <c:v>0.51155735129553093</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.718892246373127</c:v>
+                  <c:v>17.146900250402698</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.512835229380343</c:v>
+                  <c:v>61.122584899623597</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136.22785862018969</c:v>
+                  <c:v>107.99896937702461</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>172.98136335544345</c:v>
+                  <c:v>135.4731170097092</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>179.02341933196817</c:v>
+                  <c:v>137.89569933173348</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>157.12714288118593</c:v>
+                  <c:v>120.08599473813922</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>123.65453634012023</c:v>
+                  <c:v>93.381071327609675</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86.44880899061404</c:v>
+                  <c:v>64.457281719851125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54.85800217336201</c:v>
+                  <c:v>40.579932140709616</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.121667004326387</c:v>
+                  <c:v>23.078626267699864</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.444155440773896</c:v>
+                  <c:v>11.652313367620506</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.7319243391033901</c:v>
+                  <c:v>5.4165485145963368</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8561082151334722</c:v>
+                  <c:v>2.5312455921318064</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0834469046471591</c:v>
+                  <c:v>0.76608681480996554</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4603517418552605E-2</c:v>
+                  <c:v>0.25879812012478859</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.6289464166658989E-2</c:v>
+                  <c:v>2.6158270859316421E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.28109992173768816</c:v>
+                  <c:v>0.12855879796271236</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.9929869350198468E-3</c:v>
+                  <c:v>5.9074896322877199E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -785,11 +785,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="350874760"/>
-        <c:axId val="350875152"/>
+        <c:axId val="313343800"/>
+        <c:axId val="358657056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="350874760"/>
+        <c:axId val="313343800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -836,7 +836,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -902,7 +901,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350875152"/>
+        <c:crossAx val="358657056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -910,7 +909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="350875152"/>
+        <c:axId val="358657056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +956,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1024,7 +1022,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350874760"/>
+        <c:crossAx val="313343800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1077,7 +1075,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1109,7 +1106,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1117,6 +1113,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2044,20 +2041,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2078,16 +2075,20 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>2</v>
       </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2098,610 +2099,670 @@
         <v>3</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <f>SUM(A3:K3)/178</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <f>AVERAGE(A3:K3)/178</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <f>STDEV(A3:K3)/178</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>N3/SQRT(3)/178</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>122</v>
+      </c>
+      <c r="C4" s="1">
+        <v>122</v>
+      </c>
+      <c r="D4" s="1">
+        <v>122</v>
+      </c>
+      <c r="E4" s="1">
+        <v>132</v>
+      </c>
+      <c r="L4" s="1">
+        <f>SUM(A4:K4)/178</f>
+        <v>2.803370786516854</v>
+      </c>
+      <c r="M4" s="1">
+        <f>AVERAGE(A4:K4)/178</f>
+        <v>0.56067415730337078</v>
+      </c>
+      <c r="N4" s="1">
+        <f>STDEV(A4:K4)/178</f>
+        <v>0.31123798320030382</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O22" si="0">N4/SQRT(3)/178</f>
+        <v>1.0095131088917507E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3989</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3727</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4130</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3741</v>
+      </c>
+      <c r="L5" s="1">
+        <f>SUM(A5:K5)/178</f>
+        <v>87.578651685393254</v>
+      </c>
+      <c r="M5" s="1">
+        <f>AVERAGE(A5:K5)/178</f>
+        <v>17.515730337078654</v>
+      </c>
+      <c r="N5" s="1">
+        <f>STDEV(A5:K5)/178</f>
+        <v>9.8319625875092456</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>3.189037217168985E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>13865</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13338</v>
+      </c>
+      <c r="D6" s="1">
+        <v>14769</v>
+      </c>
+      <c r="E6" s="1">
+        <v>13430</v>
+      </c>
+      <c r="L6" s="1">
+        <f>SUM(A6:K6)/178</f>
+        <v>311.26404494382024</v>
+      </c>
+      <c r="M6" s="1">
+        <f>AVERAGE(A6:K6)/178</f>
+        <v>62.252808988764045</v>
+      </c>
+      <c r="N6" s="1">
+        <f>STDEV(A6:K6)/178</f>
+        <v>34.936179798046815</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0.11331692590370503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>23860</v>
+      </c>
+      <c r="C7" s="1">
+        <v>23510</v>
+      </c>
+      <c r="D7" s="1">
+        <v>25936</v>
+      </c>
+      <c r="E7" s="1">
+        <v>23567</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(A7:K7)/178</f>
+        <v>544.25280898876406</v>
+      </c>
+      <c r="M7" s="1">
+        <f>AVERAGE(A7:K7)/178</f>
+        <v>108.85056179775282</v>
+      </c>
+      <c r="N7" s="1">
+        <f>STDEV(A7:K7)/178</f>
+        <v>61.09590437684669</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0.19816706088964087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>29930</v>
+      </c>
+      <c r="C8" s="1">
+        <v>29489</v>
+      </c>
+      <c r="D8" s="1">
+        <v>31781</v>
+      </c>
+      <c r="E8" s="1">
+        <v>29346</v>
+      </c>
+      <c r="L8" s="1">
+        <f>SUM(A8:K8)/178</f>
+        <v>677.25280898876406</v>
+      </c>
+      <c r="M8" s="1">
+        <f>AVERAGE(A8:K8)/178</f>
+        <v>135.45056179775281</v>
+      </c>
+      <c r="N8" s="1">
+        <f>STDEV(A8:K8)/178</f>
+        <v>75.900778987123488</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0.24618727629167436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B9" s="1">
+        <v>30306</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30488</v>
+      </c>
+      <c r="D9" s="1">
+        <v>32042</v>
+      </c>
+      <c r="E9" s="1">
+        <v>29831</v>
+      </c>
+      <c r="L9" s="1">
+        <f>SUM(A9:K9)/178</f>
+        <v>689.17415730337075</v>
+      </c>
+      <c r="M9" s="1">
+        <f>AVERAGE(A9:K9)/178</f>
+        <v>137.83483146067414</v>
+      </c>
+      <c r="N9" s="1">
+        <f>STDEV(A9:K9)/178</f>
+        <v>77.173977316853112</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0.25031694706920909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>26265</v>
+      </c>
+      <c r="C10" s="1">
+        <v>26311</v>
+      </c>
+      <c r="D10" s="1">
+        <v>27918</v>
+      </c>
+      <c r="E10" s="1">
+        <v>25436</v>
+      </c>
+      <c r="L10" s="1">
+        <f>SUM(A10:K10)/178</f>
+        <v>595.15168539325839</v>
+      </c>
+      <c r="M10" s="1">
+        <f>AVERAGE(A10:K10)/178</f>
+        <v>119.0303370786517</v>
+      </c>
+      <c r="N10" s="1">
+        <f>STDEV(A10:K10)/178</f>
+        <v>66.709445247404886</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0.21637480994988659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>20216</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20667</v>
+      </c>
+      <c r="D11" s="1">
+        <v>21744</v>
+      </c>
+      <c r="E11" s="1">
+        <v>19358</v>
+      </c>
+      <c r="L11" s="1">
+        <f>SUM(A11:K11)/178</f>
+        <v>460.63483146067415</v>
+      </c>
+      <c r="M11" s="1">
+        <f>AVERAGE(A11:K11)/178</f>
+        <v>92.126966292134824</v>
+      </c>
+      <c r="N11" s="1">
+        <f>STDEV(A11:K11)/178</f>
+        <v>51.701794173583373</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0.16769688080733139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>13990</v>
+      </c>
+      <c r="C12" s="1">
+        <v>14606</v>
+      </c>
+      <c r="D12" s="1">
+        <v>15282</v>
+      </c>
+      <c r="E12" s="1">
+        <v>13049</v>
+      </c>
+      <c r="L12" s="1">
+        <f>SUM(A12:K12)/178</f>
+        <v>319.86516853932585</v>
+      </c>
+      <c r="M12" s="1">
+        <f>AVERAGE(A12:K12)/178</f>
+        <v>63.97303370786517</v>
+      </c>
+      <c r="N12" s="1">
+        <f>STDEV(A12:K12)/178</f>
+        <v>36.030657307378767</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0.11686690840165331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9158</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9511</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9884</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8042</v>
+      </c>
+      <c r="L13" s="1">
+        <f>SUM(A13:K13)/178</f>
+        <v>205.64606741573033</v>
+      </c>
+      <c r="M13" s="1">
+        <f>AVERAGE(A13:K13)/178</f>
+        <v>41.129213483146067</v>
+      </c>
+      <c r="N13" s="1">
+        <f>STDEV(A13:K13)/178</f>
+        <v>23.284161792514727</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>7.5523129655972909E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5177</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5555</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5964</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4553</v>
+      </c>
+      <c r="L14" s="1">
+        <f>SUM(A14:K14)/178</f>
+        <v>119.43820224719101</v>
+      </c>
+      <c r="M14" s="1">
+        <f>AVERAGE(A14:K14)/178</f>
+        <v>23.887640449438202</v>
+      </c>
+      <c r="N14" s="1">
+        <f>STDEV(A14:K14)/178</f>
+        <v>13.634757387427669</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>4.4224892404306763E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2495</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2845</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3385</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2238</v>
+      </c>
+      <c r="L15" s="1">
+        <f>SUM(A15:K15)/178</f>
+        <v>61.657303370786515</v>
+      </c>
+      <c r="M15" s="1">
+        <f>AVERAGE(A15:K15)/178</f>
+        <v>12.331460674157304</v>
+      </c>
+      <c r="N15" s="1">
+        <f>STDEV(A15:K15)/178</f>
+        <v>7.2686827482936343</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>2.3576269333602917E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1112</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1466</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1870</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1112</v>
+      </c>
+      <c r="L16" s="1">
+        <f>SUM(A16:K16)/178</f>
+        <v>31.308988764044944</v>
+      </c>
+      <c r="M16" s="1">
+        <f>AVERAGE(A16:K16)/178</f>
+        <v>6.2617977528089881</v>
+      </c>
+      <c r="N16" s="1">
+        <f>STDEV(A16:K16)/178</f>
+        <v>3.8797079231552747</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>1.2583991088824843E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>426</v>
+      </c>
+      <c r="C17" s="1">
+        <v>598</v>
+      </c>
+      <c r="D17" s="1">
+        <v>934</v>
+      </c>
+      <c r="E17" s="1">
+        <v>441</v>
+      </c>
+      <c r="L17" s="1">
+        <f>SUM(A17:K17)/178</f>
+        <v>13.556179775280899</v>
+      </c>
+      <c r="M17" s="1">
+        <f>AVERAGE(A17:K17)/178</f>
+        <v>2.7112359550561798</v>
+      </c>
+      <c r="N17" s="1">
+        <f>STDEV(A17:K17)/178</f>
+        <v>1.8666553570334494</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>6.0545728812781974E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>132</v>
+      </c>
+      <c r="C18" s="1">
+        <v>185</v>
+      </c>
+      <c r="D18" s="1">
+        <v>380</v>
+      </c>
+      <c r="E18" s="1">
+        <v>110</v>
+      </c>
+      <c r="L18" s="1">
+        <f>SUM(A18:K18)/178</f>
+        <v>4.617977528089888</v>
+      </c>
+      <c r="M18" s="1">
+        <f>AVERAGE(A18:K18)/178</f>
+        <v>0.92359550561797754</v>
+      </c>
+      <c r="N18" s="1">
+        <f>STDEV(A18:K18)/178</f>
+        <v>0.76017900004344841</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>2.4656716309403681E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1">
+        <v>132</v>
+      </c>
+      <c r="E19" s="1">
+        <v>17</v>
+      </c>
+      <c r="L19" s="1">
+        <f>SUM(A19:K19)/178</f>
+        <v>1.3651685393258426</v>
+      </c>
+      <c r="M19" s="1">
+        <f>AVERAGE(A19:K19)/178</f>
+        <v>0.27303370786516856</v>
+      </c>
+      <c r="N19" s="1">
+        <f>STDEV(A19:K19)/178</f>
+        <v>0.27017741182297456</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>8.7633146879185814E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="L20" s="1">
+        <f>SUM(A20:K20)/178</f>
+        <v>0.23595505617977527</v>
+      </c>
+      <c r="M20" s="1">
+        <f>AVERAGE(A20:K20)/178</f>
+        <v>4.7191011235955059E-2</v>
+      </c>
+      <c r="N20" s="1">
+        <f>STDEV(A20:K20)/178</f>
+        <v>6.0715757690365378E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>1.9693403958755362E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="1">
-        <f>SUM(B3:K3)/178</f>
+      <c r="L21" s="1">
+        <f>SUM(A21:K21)/178</f>
+        <v>0.11235955056179775</v>
+      </c>
+      <c r="M21" s="1">
+        <f>AVERAGE(A21:K21)/178</f>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="N21" s="1">
+        <f>STDEV(A21:K21)/178</f>
+        <v>4.4235999292201185E-2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>1.4348127022036208E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="1">
-        <f>AVERAGE(B3:K3)/178</f>
+      <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="1">
-        <f>STDEV(B3:K3)/178</f>
+      <c r="D22" s="1">
         <v>0</v>
       </c>
-      <c r="O3">
-        <f>N3/SQRT(2)/178</f>
+      <c r="E22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>104</v>
-      </c>
-      <c r="C4">
-        <v>113</v>
-      </c>
-      <c r="D4">
-        <v>132</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4:L22" si="0">SUM(B4:K4)/178</f>
-        <v>1.9606741573033708</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" ref="M4:M22" si="1">AVERAGE(B4:K4)/178</f>
-        <v>0.65355805243445686</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" ref="N4:N22" si="2">STDEV(B4:K4)/178</f>
-        <v>8.0306298286110744E-2</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O22" si="3">N4/SQRT(2)/178</f>
-        <v>3.1901757353987932E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>3942</v>
-      </c>
-      <c r="C5">
-        <v>4004</v>
-      </c>
-      <c r="D5">
-        <v>3802</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="L22" s="1">
+        <f>SUM(A22:K22)/178</f>
+        <v>0.10674157303370786</v>
+      </c>
+      <c r="M22" s="1">
+        <f>AVERAGE(A22:K22)/178</f>
+        <v>2.134831460674157E-2</v>
+      </c>
+      <c r="N22" s="1">
+        <f>STDEV(A22:K22)/178</f>
+        <v>4.7736282665725847E-2</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" si="2"/>
-        <v>0.58134531776523735</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="3"/>
-        <v>2.3094000921508291E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>13999</v>
-      </c>
-      <c r="C6">
-        <v>14693</v>
-      </c>
-      <c r="D6">
-        <v>13599</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="0"/>
-        <v>237.58988764044943</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="1"/>
-        <v>79.196629213483149</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="2"/>
-        <v>3.1098030306651494</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="3"/>
-        <v>1.235372365807755E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>24397</v>
-      </c>
-      <c r="C7">
-        <v>25783</v>
-      </c>
-      <c r="D7">
-        <v>23548</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="0"/>
-        <v>414.20224719101122</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="1"/>
-        <v>138.06741573033707</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="2"/>
-        <v>6.3382066292318875</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="3"/>
-        <v>2.5178589258940433E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>30821</v>
-      </c>
-      <c r="C8">
-        <v>32167</v>
-      </c>
-      <c r="D8">
-        <v>29506</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="0"/>
-        <v>519.62921348314603</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="1"/>
-        <v>173.20973782771534</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="2"/>
-        <v>7.4748881733817081</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="3"/>
-        <v>2.969406806746815E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>31496</v>
-      </c>
-      <c r="C9">
-        <v>32924</v>
-      </c>
-      <c r="D9">
-        <v>29596</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" si="0"/>
-        <v>528.17977528089887</v>
-      </c>
-      <c r="M9" s="1">
-        <f>AVERAGE(B9:K9)/178</f>
-        <v>176.05992509363296</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" si="2"/>
-        <v>9.3796022804107313</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="3"/>
-        <v>3.7260563917478833E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>28032</v>
-      </c>
-      <c r="C10">
-        <v>29134</v>
-      </c>
-      <c r="D10">
-        <v>25922</v>
-      </c>
-      <c r="L10" s="1">
-        <f t="shared" si="0"/>
-        <v>466.7865168539326</v>
-      </c>
-      <c r="M10" s="1">
-        <f t="shared" si="1"/>
-        <v>155.59550561797752</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" si="2"/>
-        <v>9.1693723459423886</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="3"/>
-        <v>3.6425423399102611E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>22269</v>
-      </c>
-      <c r="C11">
-        <v>22698</v>
-      </c>
-      <c r="D11">
-        <v>19994</v>
-      </c>
-      <c r="L11" s="1">
-        <f t="shared" si="0"/>
-        <v>364.94943820224717</v>
-      </c>
-      <c r="M11" s="1">
-        <f t="shared" si="1"/>
-        <v>121.6498127340824</v>
-      </c>
-      <c r="N11" s="1">
-        <f t="shared" si="2"/>
-        <v>8.1642190894725584</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="3"/>
-        <v>3.243244202954329E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>15634</v>
-      </c>
-      <c r="C12">
-        <v>16060</v>
-      </c>
-      <c r="D12">
-        <v>14135</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="0"/>
-        <v>257.46629213483146</v>
-      </c>
-      <c r="M12" s="1">
-        <f t="shared" si="1"/>
-        <v>85.822097378277164</v>
-      </c>
-      <c r="N12" s="1">
-        <f t="shared" si="2"/>
-        <v>5.6804124308752426</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="3"/>
-        <v>2.2565495223641822E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>10060</v>
-      </c>
-      <c r="C13">
-        <v>10392</v>
-      </c>
-      <c r="D13">
-        <v>8774</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" si="0"/>
-        <v>164.19101123595505</v>
-      </c>
-      <c r="M13" s="1">
-        <f t="shared" si="1"/>
-        <v>54.730337078651687</v>
-      </c>
-      <c r="N13" s="1">
-        <f t="shared" si="2"/>
-        <v>4.8010671918895023</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="3"/>
-        <v>1.9072287462456868E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>5637</v>
-      </c>
-      <c r="C14">
-        <v>6039</v>
-      </c>
-      <c r="D14">
-        <v>5160</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="0"/>
-        <v>94.584269662921344</v>
-      </c>
-      <c r="M14" s="1">
-        <f t="shared" si="1"/>
-        <v>31.528089887640448</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="2"/>
-        <v>2.4720952433227734</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="3"/>
-        <v>9.8204230915311299E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>2811</v>
-      </c>
-      <c r="C15">
-        <v>3064</v>
-      </c>
-      <c r="D15">
-        <v>2669</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="M15" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="2"/>
-        <v>1.1240588932100579</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="3"/>
-        <v>4.465335201358861E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>1419</v>
-      </c>
-      <c r="C16">
-        <v>1499</v>
-      </c>
-      <c r="D16">
-        <v>1307</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" si="0"/>
-        <v>23.735955056179776</v>
-      </c>
-      <c r="M16" s="1">
-        <f t="shared" si="1"/>
-        <v>7.9119850187265914</v>
-      </c>
-      <c r="N16" s="1">
-        <f t="shared" si="2"/>
-        <v>0.54181696839026583</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="3"/>
-        <v>2.1523733287117652E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>569</v>
-      </c>
-      <c r="C17">
-        <v>632</v>
-      </c>
-      <c r="D17">
-        <v>492</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" si="0"/>
-        <v>9.5112359550561791</v>
-      </c>
-      <c r="M17" s="1">
-        <f t="shared" si="1"/>
-        <v>3.1704119850187267</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" si="2"/>
-        <v>0.39391331239407051</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="3"/>
-        <v>1.5648245752443943E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>185</v>
-      </c>
-      <c r="C18">
-        <v>221</v>
-      </c>
-      <c r="D18">
-        <v>141</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" si="0"/>
-        <v>3.0730337078651684</v>
-      </c>
-      <c r="M18" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0243445692883895</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" si="2"/>
-        <v>0.22509332136804089</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="3"/>
-        <v>8.9418547156822753E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>53</v>
-      </c>
-      <c r="C19">
-        <v>43</v>
-      </c>
-      <c r="D19">
-        <v>40</v>
-      </c>
-      <c r="L19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.7640449438202247</v>
-      </c>
-      <c r="M19" s="1">
-        <f t="shared" si="1"/>
-        <v>0.25468164794007492</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" si="2"/>
-        <v>3.8240782503112677E-2</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="3"/>
-        <v>1.519118911563531E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" si="0"/>
-        <v>3.9325842696629212E-2</v>
-      </c>
-      <c r="M20" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3108614232209739E-2</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="2"/>
-        <v>8.5816024250109368E-3</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="3"/>
-        <v>3.4090501506585135E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.5483458228746566E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
@@ -2722,16 +2783,20 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B26">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
         <v>0</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>2</v>
       </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1"/>
       <c r="L26" s="1" t="s">
         <v>1</v>
       </c>
@@ -2742,692 +2807,772 @@
         <v>3</v>
       </c>
       <c r="O26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>146.180533129721</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-19.859862867742699</v>
+      </c>
+      <c r="D27" s="1">
+        <v>63.460656307637599</v>
+      </c>
+      <c r="E27" s="1">
+        <v>13.3568949177861</v>
+      </c>
+      <c r="L27" s="1">
+        <f>SUM(A27:K27)/178</f>
+        <v>1.1412259634123709</v>
+      </c>
+      <c r="M27" s="1">
+        <f>AVERAGE(A27:K27)/178</f>
+        <v>0.22824519268247417</v>
+      </c>
+      <c r="N27" s="1">
+        <f>STDEV(A27:K27)/178</f>
+        <v>0.37387837304206312</v>
+      </c>
+      <c r="O27">
+        <f>N27/SQRT(3)/178</f>
+        <v>1.2126897714607554E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <v>110.065609581768</v>
+      </c>
+      <c r="C28" s="1">
+        <v>117.360333427786</v>
+      </c>
+      <c r="D28" s="1">
+        <v>79.902667395770493</v>
+      </c>
+      <c r="E28" s="1">
+        <v>146.95743224769799</v>
+      </c>
+      <c r="L28" s="1">
+        <f>SUM(A28:K28)/178</f>
+        <v>2.5577867564776544</v>
+      </c>
+      <c r="M28" s="1">
+        <f>AVERAGE(A28:K28)/178</f>
+        <v>0.51155735129553093</v>
+      </c>
+      <c r="N28" s="1">
+        <f>STDEV(A28:K28)/178</f>
+        <v>0.3129563111828873</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ref="O28:O46" si="1">N28/SQRT(3)/178</f>
+        <v>1.0150865758765859E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3726.6503746509502</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3772.3361580371802</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3913.1156826019201</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3846.6390075683498</v>
+      </c>
+      <c r="L29" s="1">
+        <f>SUM(A29:K29)/178</f>
+        <v>85.734501252013487</v>
+      </c>
+      <c r="M29" s="1">
+        <f>AVERAGE(A29:K29)/178</f>
+        <v>17.146900250402698</v>
+      </c>
+      <c r="N29" s="1">
+        <f>STDEV(A29:K29)/178</f>
+        <v>9.5874652892512628</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>3.1097335199974215E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1">
+        <v>13258.3399624824</v>
+      </c>
+      <c r="C30" s="1">
+        <v>13648.1437644958</v>
+      </c>
+      <c r="D30" s="1">
+        <v>13952.7408542633</v>
+      </c>
+      <c r="E30" s="1">
+        <v>13536.875979423499</v>
+      </c>
+      <c r="L30" s="1">
+        <f>SUM(A30:K30)/178</f>
+        <v>305.61292449811799</v>
+      </c>
+      <c r="M30" s="1">
+        <f>AVERAGE(A30:K30)/178</f>
+        <v>61.122584899623597</v>
+      </c>
+      <c r="N30" s="1">
+        <f>STDEV(A30:K30)/178</f>
+        <v>34.187710081370547</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>0.11088923381155151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1">
+        <v>23719.196555137602</v>
+      </c>
+      <c r="C31" s="1">
+        <v>23803.013488769499</v>
+      </c>
+      <c r="D31" s="1">
+        <v>24893.897565841598</v>
+      </c>
+      <c r="E31" s="1">
+        <v>23698.975135803201</v>
+      </c>
+      <c r="L31" s="1">
+        <f>SUM(A31:K31)/178</f>
+        <v>539.99484688512302</v>
+      </c>
+      <c r="M31" s="1">
+        <f>AVERAGE(A31:K31)/178</f>
+        <v>107.99896937702461</v>
+      </c>
+      <c r="N31" s="1">
+        <f>STDEV(A31:K31)/178</f>
+        <v>60.426284235243841</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>0.19599512061430829</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>29867.0713882446</v>
+      </c>
+      <c r="C32" s="1">
+        <v>29822.253355026201</v>
+      </c>
+      <c r="D32" s="1">
+        <v>31491.7866840362</v>
+      </c>
+      <c r="E32" s="1">
+        <v>29384.962711334199</v>
+      </c>
+      <c r="L32" s="1">
+        <f>SUM(A32:K32)/178</f>
+        <v>677.36558504854611</v>
+      </c>
+      <c r="M32" s="1">
+        <f>AVERAGE(A32:K32)/178</f>
+        <v>135.4731170097092</v>
+      </c>
+      <c r="N32" s="1">
+        <f>STDEV(A32:K32)/178</f>
+        <v>75.850012744925891</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>0.24602261391190738</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="B33" s="1">
+        <v>30379.1996564865</v>
+      </c>
+      <c r="C33" s="1">
+        <v>30185.665578842101</v>
+      </c>
+      <c r="D33" s="1">
+        <v>32522.065771102902</v>
+      </c>
+      <c r="E33" s="1">
+        <v>29634.2413988113</v>
+      </c>
+      <c r="L33" s="1">
+        <f>SUM(A33:K33)/178</f>
+        <v>689.47849665866738</v>
+      </c>
+      <c r="M33" s="1">
+        <f>AVERAGE(A33:K33)/178</f>
+        <v>137.89569933173348</v>
+      </c>
+      <c r="N33" s="1">
+        <f>STDEV(A33:K33)/178</f>
+        <v>77.31363180446121</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>0.25076992210299603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1">
+        <v>26615.464014053301</v>
+      </c>
+      <c r="C34" s="1">
+        <v>26383.4689474105</v>
+      </c>
+      <c r="D34" s="1">
+        <v>28508.770185470501</v>
+      </c>
+      <c r="E34" s="1">
+        <v>25361.832170009598</v>
+      </c>
+      <c r="L34" s="1">
+        <f>SUM(A34:K34)/178</f>
+        <v>600.4299736906961</v>
+      </c>
+      <c r="M34" s="1">
+        <f>AVERAGE(A34:K34)/178</f>
+        <v>120.08599473813922</v>
+      </c>
+      <c r="N34" s="1">
+        <f>STDEV(A34:K34)/178</f>
+        <v>67.411291732350293</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>0.21865127768591483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1">
+        <v>20608.446747779799</v>
+      </c>
+      <c r="C35" s="1">
+        <v>20668.565856546102</v>
+      </c>
+      <c r="D35" s="1">
+        <v>22373.9241590499</v>
+      </c>
+      <c r="E35" s="1">
+        <v>19450.2167181968</v>
+      </c>
+      <c r="L35" s="1">
+        <f>SUM(A35:K35)/178</f>
+        <v>466.90535663804832</v>
+      </c>
+      <c r="M35" s="1">
+        <f>AVERAGE(A35:K35)/178</f>
+        <v>93.381071327609675</v>
+      </c>
+      <c r="N35" s="1">
+        <f>STDEV(A35:K35)/178</f>
+        <v>52.50441770400009</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>0.17030022300589329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1">
+        <v>14076.6273411661</v>
+      </c>
+      <c r="C36" s="1">
+        <v>14562.1842210292</v>
+      </c>
+      <c r="D36" s="1">
+        <v>15493.227323770499</v>
+      </c>
+      <c r="E36" s="1">
+        <v>13225.9418447017</v>
+      </c>
+      <c r="L36" s="1">
+        <f>SUM(A36:K36)/178</f>
+        <v>322.28640859925559</v>
+      </c>
+      <c r="M36" s="1">
+        <f>AVERAGE(A36:K36)/178</f>
+        <v>64.457281719851125</v>
+      </c>
+      <c r="N36" s="1">
+        <f>STDEV(A36:K36)/178</f>
+        <v>36.297989594552611</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>0.1177340115924561</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1">
+        <v>8683.4719006493597</v>
+      </c>
+      <c r="C37" s="1">
+        <v>9463.98192198574</v>
+      </c>
+      <c r="D37" s="1">
+        <v>9841.2700896859096</v>
+      </c>
+      <c r="E37" s="1">
+        <v>8117.4156929105502</v>
+      </c>
+      <c r="L37" s="1">
+        <f>SUM(A37:K37)/178</f>
+        <v>202.89966070354811</v>
+      </c>
+      <c r="M37" s="1">
+        <f>AVERAGE(A37:K37)/178</f>
+        <v>40.579932140709616</v>
+      </c>
+      <c r="N37" s="1">
+        <f>STDEV(A37:K37)/178</f>
+        <v>22.964692539671759</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>7.4486918087845397E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>11</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4814.8825719617298</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5569.5634635612296</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5643.4327537715399</v>
+      </c>
+      <c r="E38" s="1">
+        <v>4501.0985889583799</v>
+      </c>
+      <c r="L38" s="1">
+        <f>SUM(A38:K38)/178</f>
+        <v>115.39313133849932</v>
+      </c>
+      <c r="M38" s="1">
+        <f>AVERAGE(A38:K38)/178</f>
+        <v>23.078626267699864</v>
+      </c>
+      <c r="N38" s="1">
+        <f>STDEV(A38:K38)/178</f>
+        <v>13.155349398434563</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>4.2669913013875148E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2413.4253503978198</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3072.9734490513001</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2798.9655936956401</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2073.1945040374899</v>
+      </c>
+      <c r="L39" s="1">
+        <f>SUM(A39:K39)/178</f>
+        <v>58.261566838102532</v>
+      </c>
+      <c r="M39" s="1">
+        <f>AVERAGE(A39:K39)/178</f>
+        <v>11.652313367620506</v>
+      </c>
+      <c r="N39" s="1">
+        <f>STDEV(A39:K39)/178</f>
+        <v>6.8175593719648582</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>2.211303223943914E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1162.5775889716999</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1491.9439937248801</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1144.5696651302201</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1008.63693016394</v>
+      </c>
+      <c r="L40" s="1">
+        <f>SUM(A40:K40)/178</f>
+        <v>27.082742572981683</v>
+      </c>
+      <c r="M40" s="1">
+        <f>AVERAGE(A40:K40)/178</f>
+        <v>5.4165485145963368</v>
+      </c>
+      <c r="N40" s="1">
+        <f>STDEV(A40:K40)/178</f>
+        <v>3.1495224216831863</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>1.0215604595379492E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1">
+        <v>516.509781830012</v>
+      </c>
+      <c r="C41" s="1">
+        <v>781.83996771269994</v>
+      </c>
+      <c r="D41" s="1">
+        <v>588.84505618363596</v>
+      </c>
+      <c r="E41" s="1">
+        <v>351.61377127096</v>
+      </c>
+      <c r="L41" s="1">
+        <f>SUM(A41:K41)/178</f>
+        <v>12.656227960659033</v>
+      </c>
+      <c r="M41" s="1">
+        <f>AVERAGE(A41:K41)/178</f>
+        <v>2.5312455921318064</v>
+      </c>
+      <c r="N41" s="1">
+        <f>STDEV(A41:K41)/178</f>
+        <v>1.6224032821374152</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="1"/>
+        <v>5.2623313015515115E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>15</v>
+      </c>
+      <c r="B42" s="1">
+        <v>174.00147067196599</v>
+      </c>
+      <c r="C42" s="1">
+        <v>302.77361822873303</v>
+      </c>
+      <c r="D42" s="1">
+        <v>71.380057878792201</v>
+      </c>
+      <c r="E42" s="1">
+        <v>118.662118401378</v>
+      </c>
+      <c r="L42" s="1">
+        <f>SUM(A42:K42)/178</f>
+        <v>3.8304340740498275</v>
+      </c>
+      <c r="M42" s="1">
+        <f>AVERAGE(A42:K42)/178</f>
+        <v>0.76608681480996554</v>
+      </c>
+      <c r="N42" s="1">
+        <f>STDEV(A42:K42)/178</f>
+        <v>0.61781298931779449</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="1"/>
+        <v>2.0039016611880676E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>16</v>
+      </c>
+      <c r="B43" s="1">
+        <v>77.054865732788997</v>
+      </c>
+      <c r="C43" s="1">
+        <v>98.292105395346795</v>
+      </c>
+      <c r="D43" s="1">
+        <v>6.5175169035792297</v>
+      </c>
+      <c r="E43" s="1">
+        <v>32.465838879346798</v>
+      </c>
+      <c r="L43" s="1">
+        <f>SUM(A43:K43)/178</f>
+        <v>1.2939906006239428</v>
+      </c>
+      <c r="M43" s="1">
+        <f>AVERAGE(A43:K43)/178</f>
+        <v>0.25879812012478859</v>
+      </c>
+      <c r="N43" s="1">
+        <f>STDEV(A43:K43)/178</f>
+        <v>0.22367889758721332</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="1"/>
+        <v>7.2551163895514799E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>17</v>
+      </c>
+      <c r="B44" s="1">
+        <v>-2.5662979334592801</v>
+      </c>
+      <c r="C44" s="1">
+        <v>32.836906552314701</v>
+      </c>
+      <c r="D44" s="1">
+        <v>19.716158982366299</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-43.705906536430099</v>
+      </c>
+      <c r="L44" s="1">
+        <f>SUM(A44:K44)/178</f>
+        <v>0.13079135429658212</v>
+      </c>
+      <c r="M44" s="1">
+        <f>AVERAGE(A44:K44)/178</f>
+        <v>2.6158270859316421E-2</v>
+      </c>
+      <c r="N44" s="1">
+        <f>STDEV(A44:K44)/178</f>
+        <v>0.16770349415244457</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="1"/>
+        <v>5.4395313198289164E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>18</v>
+      </c>
+      <c r="B45" s="1">
+        <v>52.977822385728302</v>
+      </c>
+      <c r="C45" s="1">
+        <v>9.36165071651339</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-33.274311296641798</v>
+      </c>
+      <c r="E45" s="1">
+        <v>67.352168381214099</v>
+      </c>
+      <c r="L45" s="1">
+        <f>SUM(A45:K45)/178</f>
+        <v>0.64279398981356184</v>
+      </c>
+      <c r="M45" s="1">
+        <f>AVERAGE(A45:K45)/178</f>
+        <v>0.12855879796271236</v>
+      </c>
+      <c r="N45" s="1">
+        <f>STDEV(A45:K45)/178</f>
+        <v>0.22195489978580338</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="1"/>
+        <v>7.1991978168140446E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>19</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45.794991977512801</v>
+      </c>
+      <c r="C46" s="1">
+        <v>29.584099754691099</v>
+      </c>
+      <c r="D46" s="1">
+        <v>24.385509587824298</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-66.187943592667494</v>
+      </c>
+      <c r="L46" s="1">
+        <f>SUM(A46:K46)/178</f>
+        <v>0.29537448161438601</v>
+      </c>
+      <c r="M46" s="1">
+        <f>AVERAGE(A46:K46)/178</f>
+        <v>5.9074896322877199E-2</v>
+      </c>
+      <c r="N46" s="1">
+        <f>STDEV(A46:K46)/178</f>
+        <v>0.24738303662239075</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="1"/>
+        <v>8.0239698194878848E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C50">
+        <f>SUM(A27:A46)</f>
+        <v>190</v>
+      </c>
+      <c r="D50">
+        <f>SUM(B27:B46)</f>
+        <v>180445.37222935792</v>
+      </c>
+      <c r="E50">
+        <f>SUM(C27:C46)</f>
+        <v>183796.28301740007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C51">
+        <f>SUM(A3:A22)</f>
+        <v>190</v>
+      </c>
+      <c r="D51">
+        <f>SUM(B3:B22)</f>
+        <v>181078</v>
+      </c>
+      <c r="E51">
+        <f>SUM(C3:C22)</f>
+        <v>182463</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="e">
+        <f>B50-B51</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52" si="2">C50-C51</f>
         <v>0</v>
       </c>
-      <c r="B27">
-        <v>-51.954521887004297</v>
-      </c>
-      <c r="C27">
-        <v>36.3902448639273</v>
-      </c>
-      <c r="D27">
-        <v>-177.02525894343799</v>
-      </c>
-      <c r="L27" s="1">
-        <f>SUM(B27:K27)/178</f>
-        <v>-1.0819636852051402</v>
-      </c>
-      <c r="M27" s="1">
-        <f>AVERAGE(B27:K27)/178</f>
-        <v>-0.36065456173504679</v>
-      </c>
-      <c r="N27" s="1">
-        <f>STDEV(B27:K27)/178</f>
-        <v>0.60243331167238712</v>
-      </c>
-      <c r="O27">
-        <f>N27/SQRT(2)/178</f>
-        <v>2.3931723589674932E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>173.40680469944999</v>
-      </c>
-      <c r="C28">
-        <v>81.736339934170203</v>
-      </c>
-      <c r="D28">
-        <v>76.798635441809793</v>
-      </c>
-      <c r="L28" s="1">
-        <f t="shared" ref="L28:L46" si="4">SUM(B28:K28)/178</f>
-        <v>1.8648414610979211</v>
-      </c>
-      <c r="M28" s="1">
-        <f t="shared" ref="M28:M46" si="5">AVERAGE(B28:K28)/178</f>
-        <v>0.62161382036597379</v>
-      </c>
-      <c r="N28" s="1">
-        <f t="shared" ref="N28:N46" si="6">STDEV(B28:K28)/178</f>
-        <v>0.30565957082342637</v>
-      </c>
-      <c r="O28">
-        <f t="shared" ref="O28:O46" si="7">N28/SQRT(2)/178</f>
-        <v>1.2142357037292952E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>3750.4196364879599</v>
-      </c>
-      <c r="C29">
-        <v>3902.44620966911</v>
-      </c>
-      <c r="D29">
-        <v>3411.02261340618</v>
-      </c>
-      <c r="L29" s="1">
-        <f t="shared" si="4"/>
-        <v>62.156676739119384</v>
-      </c>
-      <c r="M29" s="1">
-        <f t="shared" si="5"/>
-        <v>20.718892246373127</v>
-      </c>
-      <c r="N29" s="1">
-        <f t="shared" si="6"/>
-        <v>1.4134537630137907</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="7"/>
-        <v>5.6149592175319925E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>13836.4039421081</v>
-      </c>
-      <c r="C30">
-        <v>14031.876961708</v>
-      </c>
-      <c r="D30">
-        <v>12989.573108672999</v>
-      </c>
-      <c r="L30" s="1">
-        <f t="shared" si="4"/>
-        <v>229.53850568814102</v>
-      </c>
-      <c r="M30" s="1">
-        <f t="shared" si="5"/>
-        <v>76.512835229380343</v>
-      </c>
-      <c r="N30" s="1">
-        <f t="shared" si="6"/>
-        <v>3.1125568528670371</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="7"/>
-        <v>1.2364663244331128E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>24603.9913940429</v>
-      </c>
-      <c r="C31">
-        <v>25258.438318252502</v>
-      </c>
-      <c r="D31">
-        <v>22883.2467908859</v>
-      </c>
-      <c r="L31" s="1">
-        <f t="shared" si="4"/>
-        <v>408.68357586056908</v>
-      </c>
-      <c r="M31" s="1">
-        <f t="shared" si="5"/>
-        <v>136.22785862018969</v>
-      </c>
-      <c r="N31" s="1">
-        <f t="shared" si="6"/>
-        <v>6.892351630013442</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="7"/>
-        <v>2.7379935819689095E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>31142.128328323299</v>
-      </c>
-      <c r="C32">
-        <v>31945.7951393127</v>
-      </c>
-      <c r="D32">
-        <v>29284.124564170801</v>
-      </c>
-      <c r="L32" s="1">
-        <f t="shared" si="4"/>
-        <v>518.94409006633032</v>
-      </c>
-      <c r="M32" s="1">
-        <f t="shared" si="5"/>
-        <v>172.98136335544345</v>
-      </c>
-      <c r="N32" s="1">
-        <f t="shared" si="6"/>
-        <v>7.6696362899771673</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="7"/>
-        <v>3.0467706909422968E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>6</v>
-      </c>
-      <c r="B33">
-        <v>32155.271041870099</v>
-      </c>
-      <c r="C33">
-        <v>33216.5679588317</v>
-      </c>
-      <c r="D33">
-        <v>30226.666922569199</v>
-      </c>
-      <c r="L33" s="1">
-        <f t="shared" si="4"/>
-        <v>537.07025799590451</v>
-      </c>
-      <c r="M33" s="1">
-        <f t="shared" si="5"/>
-        <v>179.02341933196817</v>
-      </c>
-      <c r="N33" s="1">
-        <f t="shared" si="6"/>
-        <v>8.515568297512349</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="7"/>
-        <v>3.3828180274315535E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>7</v>
-      </c>
-      <c r="B34">
-        <v>28238.422568321199</v>
-      </c>
-      <c r="C34">
-        <v>29211.363212585398</v>
-      </c>
-      <c r="D34">
-        <v>26456.108517646699</v>
-      </c>
-      <c r="L34" s="1">
-        <f t="shared" si="4"/>
-        <v>471.3814286435578</v>
-      </c>
-      <c r="M34" s="1">
-        <f t="shared" si="5"/>
-        <v>157.12714288118593</v>
-      </c>
-      <c r="N34" s="1">
-        <f t="shared" si="6"/>
-        <v>7.8500005248467009</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="7"/>
-        <v>3.1184205637286851E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35">
-        <v>22202.845448493899</v>
-      </c>
-      <c r="C35">
-        <v>23368.141122817899</v>
-      </c>
-      <c r="D35">
-        <v>20460.535834312399</v>
-      </c>
-      <c r="L35" s="1">
-        <f t="shared" si="4"/>
-        <v>370.96360902036065</v>
-      </c>
-      <c r="M35" s="1">
-        <f t="shared" si="5"/>
-        <v>123.65453634012023</v>
-      </c>
-      <c r="N35" s="1">
-        <f t="shared" si="6"/>
-        <v>8.2208645729607639</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="7"/>
-        <v>3.2657466779532622E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="D52">
+        <f>D50-D51</f>
+        <v>-632.62777064208058</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ref="E52" si="3">E50-E51</f>
+        <v>1333.2830174000701</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>9</v>
       </c>
-      <c r="B36">
-        <v>15609.781964301999</v>
-      </c>
-      <c r="C36">
-        <v>16407.300406932802</v>
-      </c>
-      <c r="D36">
-        <v>14146.5816297531</v>
-      </c>
-      <c r="L36" s="1">
-        <f t="shared" si="4"/>
-        <v>259.34642697184211</v>
-      </c>
-      <c r="M36" s="1">
-        <f t="shared" si="5"/>
-        <v>86.44880899061404</v>
-      </c>
-      <c r="N36" s="1">
-        <f t="shared" si="6"/>
-        <v>6.4414468308458197</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="7"/>
-        <v>2.5588711992941993E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="B53" t="e">
+        <f>B52/B51</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53" si="4">C52/C51</f>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f>D52/D51</f>
+        <v>-3.4936754914571652E-3</v>
+      </c>
+      <c r="E53">
+        <f>E52/E51</f>
+        <v>7.3071418172455244E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>10</v>
       </c>
-      <c r="B37">
-        <v>9877.9780020117705</v>
-      </c>
-      <c r="C37">
-        <v>10361.586494564999</v>
-      </c>
-      <c r="D37">
-        <v>9054.6086639985406</v>
-      </c>
-      <c r="L37" s="1">
-        <f t="shared" si="4"/>
-        <v>164.57400652008602</v>
-      </c>
-      <c r="M37" s="1">
-        <f t="shared" si="5"/>
-        <v>54.85800217336201</v>
-      </c>
-      <c r="N37" s="1">
-        <f t="shared" si="6"/>
-        <v>3.7124059207213063</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="7"/>
-        <v>1.4747569668871485E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>11</v>
-      </c>
-      <c r="B38">
-        <v>5619.0370112657502</v>
-      </c>
-      <c r="C38">
-        <v>6204.4547407329001</v>
-      </c>
-      <c r="D38">
-        <v>4795.4784283116396</v>
-      </c>
-      <c r="L38" s="1">
-        <f t="shared" si="4"/>
-        <v>93.365001012979164</v>
-      </c>
-      <c r="M38" s="1">
-        <f t="shared" si="5"/>
-        <v>31.121667004326387</v>
-      </c>
-      <c r="N38" s="1">
-        <f t="shared" si="6"/>
-        <v>3.9765975408658636</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="7"/>
-        <v>1.5797073523573037E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>12</v>
-      </c>
-      <c r="B39">
-        <v>2974.3002860695101</v>
-      </c>
-      <c r="C39">
-        <v>2671.7056588083501</v>
-      </c>
-      <c r="D39">
-        <v>2601.1730604954</v>
-      </c>
-      <c r="L39" s="1">
-        <f t="shared" si="4"/>
-        <v>46.332466322321686</v>
-      </c>
-      <c r="M39" s="1">
-        <f t="shared" si="5"/>
-        <v>15.444155440773896</v>
-      </c>
-      <c r="N39" s="1">
-        <f t="shared" si="6"/>
-        <v>1.1136315749718473</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="7"/>
-        <v>4.4239125753148777E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>13</v>
-      </c>
-      <c r="B40">
-        <v>1404.80105935037</v>
-      </c>
-      <c r="C40">
-        <v>1155.9127619266501</v>
-      </c>
-      <c r="D40">
-        <v>1034.13377580419</v>
-      </c>
-      <c r="L40" s="1">
-        <f t="shared" si="4"/>
-        <v>20.19577301731017</v>
-      </c>
-      <c r="M40" s="1">
-        <f t="shared" si="5"/>
-        <v>6.7319243391033901</v>
-      </c>
-      <c r="N40" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0614106193043973</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="7"/>
-        <v>4.2164643063682715E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>14</v>
-      </c>
-      <c r="B41">
-        <v>666.72077152132897</v>
-      </c>
-      <c r="C41">
-        <v>618.92534636706102</v>
-      </c>
-      <c r="D41">
-        <v>239.515668992884</v>
-      </c>
-      <c r="L41" s="1">
-        <f t="shared" si="4"/>
-        <v>8.5683246454004163</v>
-      </c>
-      <c r="M41" s="1">
-        <f t="shared" si="5"/>
-        <v>2.8561082151334722</v>
-      </c>
-      <c r="N41" s="1">
-        <f t="shared" si="6"/>
-        <v>1.3150154330811645</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="7"/>
-        <v>5.2239119668351462E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>15</v>
-      </c>
-      <c r="B42">
-        <v>270.08432940766198</v>
-      </c>
-      <c r="C42">
-        <v>252.03235117346</v>
-      </c>
-      <c r="D42">
-        <v>56.443966500461002</v>
-      </c>
-      <c r="L42" s="1">
-        <f t="shared" si="4"/>
-        <v>3.2503407139414771</v>
-      </c>
-      <c r="M42" s="1">
-        <f t="shared" si="5"/>
-        <v>1.0834469046471591</v>
-      </c>
-      <c r="N42" s="1">
-        <f t="shared" si="6"/>
-        <v>0.6656094123659968</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="7"/>
-        <v>2.6441400511549966E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>16</v>
-      </c>
-      <c r="B43">
-        <v>44.719016075134199</v>
-      </c>
-      <c r="C43">
-        <v>49.3266883082687</v>
-      </c>
-      <c r="D43">
-        <v>-70.2274260818958</v>
-      </c>
-      <c r="L43" s="1">
-        <f t="shared" si="4"/>
-        <v>0.13381055225565783</v>
-      </c>
-      <c r="M43" s="1">
-        <f t="shared" si="5"/>
-        <v>4.4603517418552605E-2</v>
-      </c>
-      <c r="N43" s="1">
-        <f t="shared" si="6"/>
-        <v>0.38052624401130214</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="7"/>
-        <v>1.5116443121339247E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>17</v>
-      </c>
-      <c r="B44">
-        <v>-3.1862962692969998</v>
-      </c>
-      <c r="C44">
-        <v>26.494151070713901</v>
-      </c>
-      <c r="D44">
-        <v>-32.006428666412802</v>
-      </c>
-      <c r="L44" s="1">
-        <f t="shared" si="4"/>
-        <v>-4.8868392499976966E-2</v>
-      </c>
-      <c r="M44" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.6289464166658989E-2</v>
-      </c>
-      <c r="N44" s="1">
-        <f t="shared" si="6"/>
-        <v>0.16433339422564056</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="7"/>
-        <v>6.5281605299074522E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>18</v>
-      </c>
-      <c r="B45">
-        <v>-32.983289174735503</v>
-      </c>
-      <c r="C45">
-        <v>-7.0156245697289696</v>
-      </c>
-      <c r="D45">
-        <v>-110.108444463461</v>
-      </c>
-      <c r="L45" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.84329976521306449</v>
-      </c>
-      <c r="M45" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.28109992173768816</v>
-      </c>
-      <c r="N45" s="1">
-        <f t="shared" si="6"/>
-        <v>0.30123693553755693</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="7"/>
-        <v>1.1966667408003448E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>19</v>
-      </c>
-      <c r="B46">
-        <v>-64.278404667973504</v>
-      </c>
-      <c r="C46">
-        <v>57.552115336060503</v>
-      </c>
-      <c r="D46">
-        <v>10.460544355213599</v>
-      </c>
-      <c r="L46" s="1">
-        <f t="shared" si="4"/>
-        <v>2.0978960805059538E-2</v>
-      </c>
-      <c r="M46" s="1">
-        <f t="shared" si="5"/>
-        <v>6.9929869350198468E-3</v>
-      </c>
-      <c r="N46" s="1">
-        <f t="shared" si="6"/>
-        <v>0.34514537843481735</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="7"/>
-        <v>1.3710934695868344E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50">
-        <f>SUM(B27:B46)</f>
-        <v>192417.90909235144</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ref="C50:D50" si="8">SUM(C27:C46)</f>
-        <v>198851.03059862697</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="8"/>
-        <v>177337.10516716226</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51">
-        <f>SUM(B3:B22)</f>
-        <v>191432</v>
-      </c>
-      <c r="C51">
-        <f t="shared" ref="C51:D51" si="9">SUM(C3:C22)</f>
-        <v>199468</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="9"/>
-        <v>178818</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52">
-        <f>B50-B51</f>
-        <v>985.909092351445</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:D52" si="10">C50-C51</f>
-        <v>-616.96940137303318</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="10"/>
-        <v>-1480.8948328377446</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53">
-        <f>B52/B51</f>
-        <v>5.1501791359409342E-3</v>
-      </c>
-      <c r="C53">
-        <f t="shared" ref="C53:D53" si="11">C52/C51</f>
-        <v>-3.0930745852619625E-3</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="11"/>
-        <v>-8.2815758639384444E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54">
+      <c r="B54" t="e">
         <f>(B50-B51)^2/B51</f>
-        <v>5.0776084373628763</v>
+        <v>#REF!</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:D54" si="12">(C50-C51)^2/C51</f>
-        <v>1.908332375271216</v>
+        <f t="shared" ref="C54" si="5">(C50-C51)^2/C51</f>
+        <v>0</v>
       </c>
       <c r="D54">
-        <f t="shared" si="12"/>
-        <v>12.264142904660222</v>
+        <f>(D50-D51)^2/D51</f>
+        <v>2.2101961375074217</v>
+      </c>
+      <c r="E54">
+        <f>(E50-E51)^2/E51</f>
+        <v>9.7424880906673437</v>
       </c>
     </row>
   </sheetData>
@@ -3438,6 +3583,7 @@
     <mergeCell ref="L25:O25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>